--- a/results/mp/deberta/corona/confidence/42/stop-words-topk-desired-masking-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-topk-desired-masking-0.2/avg_0.003_scores.xlsx
@@ -103,22 +103,22 @@
     <t>hand</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>love</t>
   </si>
   <si>
     <t>positive</t>
@@ -1214,25 +1214,25 @@
         <v>29</v>
       </c>
       <c r="K12">
-        <v>0.7665198237885462</v>
+        <v>0.7528089887640449</v>
       </c>
       <c r="L12">
-        <v>174</v>
+        <v>67</v>
       </c>
       <c r="M12">
-        <v>186</v>
+        <v>72</v>
       </c>
       <c r="N12">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="O12">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P12" t="b">
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>53</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1264,25 +1264,25 @@
         <v>30</v>
       </c>
       <c r="K13">
-        <v>0.7528089887640449</v>
+        <v>0.7280334728033473</v>
       </c>
       <c r="L13">
-        <v>67</v>
+        <v>174</v>
       </c>
       <c r="M13">
-        <v>72</v>
+        <v>174</v>
       </c>
       <c r="N13">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>22</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1342,25 +1342,25 @@
         <v>33</v>
       </c>
       <c r="K16">
-        <v>0.6932515337423313</v>
+        <v>0.6739130434782609</v>
       </c>
       <c r="L16">
-        <v>226</v>
+        <v>31</v>
       </c>
       <c r="M16">
-        <v>240</v>
+        <v>31</v>
       </c>
       <c r="N16">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1368,13 +1368,13 @@
         <v>34</v>
       </c>
       <c r="K17">
-        <v>0.6739130434782609</v>
+        <v>0.6647058823529411</v>
       </c>
       <c r="L17">
-        <v>31</v>
+        <v>226</v>
       </c>
       <c r="M17">
-        <v>31</v>
+        <v>226</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>15</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="10:17">
